--- a/biology/Biologie cellulaire et moléculaire/Cycle_de_Calvin/Cycle_de_Calvin.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cycle_de_Calvin/Cycle_de_Calvin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cycle de Calvin (aussi connu comme le cycle de Calvin-Benson-Bassham) est une série de réactions biochimiques  des organismes photosynthétiques ayant lieu dans le stroma des chloroplastes chez les eucaryotes ou dans le cytoplasme chez les procaryotes. Il a été découvert par Melvin Calvin, Andy Benson et James Bassham (en) à l’université de Californie à Berkeley.
 Durant la photosynthèse, l’énergie de la lumière est convertie en énergie chimique conservée dans l’ATP et le NADPH. Le cycle de Calvin, indépendant de la lumière, utilise l’énergie de ces transporteurs à courte vie pour transformer le dioxyde de carbone en composés organiques (notamment du glucose) qui peuvent être utilisés par l’organisme. Cet ensemble de réactions est une des voies métaboliques de la fixation du carbone. L’enzyme clé du cycle est appelée Rubisco (Ribulose-1,5-bisphosphate carboxylase/oxygénase).
@@ -517,34 +529,173 @@
           <t>Réactions dans le cycle de Calvin</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le cycle de Calvin se déroule en trois étapes :
 fixation du dioxyde de carbone ;
 réduction de l’acide 3-phosphoglycérique (APG) en trioses phosphate (sucre) ;
-régénération du ribulose-1,5-bisphosphate (accepteur de CO2).
-Fixation du dioxyde de carbone
-Cette réaction, catalysée par l'enzyme Rubisco, est très exergonique (ΔG°' = −51,9 kJ mol−1)[1].
-Phosphorylation du 3-phosphoglycérate
-3-phosphoglycérate + ATP  
+régénération du ribulose-1,5-bisphosphate (accepteur de CO2).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cycle_de_Calvin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cycle_de_Calvin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Réactions dans le cycle de Calvin</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fixation du dioxyde de carbone</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette réaction, catalysée par l'enzyme Rubisco, est très exergonique (ΔG°' = −51,9 kJ mol−1).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cycle_de_Calvin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cycle_de_Calvin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Réactions dans le cycle de Calvin</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phosphorylation du 3-phosphoglycérate</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3-phosphoglycérate + ATP  
         ⇌
     {\displaystyle \rightleftharpoons }
   1,3-bisphosphoglycérate + ADP
 6 C3H4PO73− + 6 ATP  
         ⇌
     {\displaystyle \rightleftharpoons }
-  6 C3H4P2O104− + 6 ADP
-Réduction du 1,3-bisphosphoglycérate
-1,3-bisphosphoglycérate + NADPH + H+(aq)  
+  6 C3H4P2O104− + 6 ADP</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cycle_de_Calvin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cycle_de_Calvin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Réactions dans le cycle de Calvin</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Réduction du 1,3-bisphosphoglycérate</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1,3-bisphosphoglycérate + NADPH + H+(aq)  
         ⇌
     {\displaystyle \rightleftharpoons }
   glycéraldéhyde-3-phosphate + NADP+ + Pi
 6 C3H4P2O104− + 6 NADPH + 6 H+(aq)  
         ⇌
     {\displaystyle \rightleftharpoons }
-  6 C3H5PO62− + 6 NADP+ + 6 Pi
-Recyclage du glycéraldéhyde-3-phosphate en ribulose-5-phosphate
-Cette étape consiste à reconvertir les molécules à 3 atomes de carbone en molécules à 5 atomes de carbone afin de pouvoir les réutiliser dans le cycle.
+  6 C3H5PO62− + 6 NADP+ + 6 Pi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cycle_de_Calvin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cycle_de_Calvin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Réactions dans le cycle de Calvin</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recyclage du glycéraldéhyde-3-phosphate en ribulose-5-phosphate</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette étape consiste à reconvertir les molécules à 3 atomes de carbone en molécules à 5 atomes de carbone afin de pouvoir les réutiliser dans le cycle.
 L'équation bilan est la suivante :
 5 × glycéraldéhyde-3-phosphate + 2 × H2O → 3 × ribulose-5-phosphate + 2 × Pi
 5 C3H5PO62− + 2 H2O → 3 C5H9PO82− + 2 Pi
@@ -626,8 +777,43 @@
     {\displaystyle \rightleftharpoons }
   C5H9PO82−
 Finalement, il a été produit 3 molécules de ribulose-5-phosphate qui vont pouvoir être utilisées ci-dessous.
-Régénération du ribulose-1,5-bisphosphate
-ribulose-5-phosphate + ATP  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cycle_de_Calvin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cycle_de_Calvin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Réactions dans le cycle de Calvin</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Régénération du ribulose-1,5-bisphosphate</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ribulose-5-phosphate + ATP  
         ⇌
     {\displaystyle \rightleftharpoons }
   ribulose-1,5-bisphosphate + ADP
@@ -636,8 +822,43 @@
     {\displaystyle \rightleftharpoons }
   3 C5H8P2O114− + 3 ADP + 3 H+(aq)
 La molécule glycéraldéhyde-3-phosphate manquante est convertie en glucose.
-Synthèse du glucose-6-phosphate
-2 × glycéraldéhyde-3-phosphate → glucose-6-phosphate
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cycle_de_Calvin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cycle_de_Calvin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Réactions dans le cycle de Calvin</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synthèse du glucose-6-phosphate</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 × glycéraldéhyde-3-phosphate → glucose-6-phosphate
 2 C3H5PO62− + H2O → C6H11O9P2− + Pi</t>
         </is>
       </c>
